--- a/jwang/case/ieee14_base.xlsx
+++ b/jwang/case/ieee14_base.xlsx
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" t="str">
         <v>BusFreq_2</v>

--- a/jwang/case/ieee14_base.xlsx
+++ b/jwang/case/ieee14_base.xlsx
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
         <v>BusFreq_2</v>
